--- a/ProjektRapport/HvemSkriverHvad.xlsx
+++ b/ProjektRapport/HvemSkriverHvad.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tenna\Documents\IHA\3. semester\IHA_3_Semester_Project\ProjektRapport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635"/>
   </bookViews>
@@ -303,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -318,6 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,7 +607,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +701,7 @@
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="6"/>
